--- a/Outputs/logReport(C&T).xlsx
+++ b/Outputs/logReport(C&T).xlsx
@@ -61,64 +61,64 @@
     <t>QKS</t>
   </si>
   <si>
-    <t>0.24(0.14)</t>
-  </si>
-  <si>
-    <t>0.94(0.153)</t>
-  </si>
-  <si>
-    <t>-2.41(0.073)*</t>
-  </si>
-  <si>
-    <t>3.2(0.18)</t>
-  </si>
-  <si>
-    <t>0.5(0.073)</t>
-  </si>
-  <si>
-    <t>0.89(0.08)*</t>
-  </si>
-  <si>
-    <t>-1.68(0.107)</t>
+    <t>0.24(0.133)</t>
+  </si>
+  <si>
+    <t>0.94(0.123)</t>
+  </si>
+  <si>
+    <t>-2.41(0.103)</t>
+  </si>
+  <si>
+    <t>3.2(0.17)</t>
+  </si>
+  <si>
+    <t>0.5(0.097)</t>
+  </si>
+  <si>
+    <t>0.89(0.097)*</t>
+  </si>
+  <si>
+    <t>-1.68(0.127)</t>
   </si>
   <si>
     <t>5.54(0.0)***</t>
   </si>
   <si>
-    <t>0.12(0.327)</t>
-  </si>
-  <si>
-    <t>0.97(0.367)</t>
-  </si>
-  <si>
-    <t>-1.1(0.38)</t>
-  </si>
-  <si>
-    <t>1.9(0.6)</t>
-  </si>
-  <si>
-    <t>0.41(0.073)</t>
-  </si>
-  <si>
-    <t>0.91(0.08)*</t>
-  </si>
-  <si>
-    <t>-2.39(0.16)</t>
-  </si>
-  <si>
-    <t>2.39(0.587)</t>
-  </si>
-  <si>
-    <t>0.27(0.127)</t>
-  </si>
-  <si>
-    <t>0.94(0.133)</t>
-  </si>
-  <si>
-    <t>-2.61(0.067)*</t>
-  </si>
-  <si>
-    <t>2.61(0.44)</t>
+    <t>0.12(0.4)</t>
+  </si>
+  <si>
+    <t>0.97(0.42)</t>
+  </si>
+  <si>
+    <t>-1.1(0.383)</t>
+  </si>
+  <si>
+    <t>1.9(0.65)</t>
+  </si>
+  <si>
+    <t>0.41(0.033)*</t>
+  </si>
+  <si>
+    <t>0.91(0.033)**</t>
+  </si>
+  <si>
+    <t>-2.39(0.093)*</t>
+  </si>
+  <si>
+    <t>2.39(0.503)</t>
+  </si>
+  <si>
+    <t>0.27(0.107)</t>
+  </si>
+  <si>
+    <t>0.94(0.107)</t>
+  </si>
+  <si>
+    <t>-2.61(0.06)*</t>
+  </si>
+  <si>
+    <t>2.61(0.387)</t>
   </si>
   <si>
     <t>-0.19(0.0)***</t>
@@ -130,442 +130,448 @@
     <t>∞</t>
   </si>
   <si>
-    <t>1.09(0.993)</t>
-  </si>
-  <si>
-    <t>4.8(0.007)***</t>
+    <t>1.09(1.0)</t>
+  </si>
+  <si>
+    <t>4.8(0.003)***</t>
   </si>
   <si>
     <t>0.66(0.0)***</t>
   </si>
   <si>
-    <t>0.85(0.0)***</t>
+    <t>0.85(0.003)***</t>
   </si>
   <si>
     <t>-3.41(0.013)**</t>
   </si>
   <si>
-    <t>3.41(0.073)*</t>
-  </si>
-  <si>
-    <t>-0.03(0.04)*</t>
-  </si>
-  <si>
-    <t>1.0(0.96)</t>
-  </si>
-  <si>
-    <t>0.06(0.96)</t>
-  </si>
-  <si>
-    <t>3.88(0.04)**</t>
-  </si>
-  <si>
-    <t>0.21(0.08)</t>
-  </si>
-  <si>
-    <t>0.95(0.08)*</t>
+    <t>3.41(0.067)*</t>
+  </si>
+  <si>
+    <t>-0.03(0.083)</t>
+  </si>
+  <si>
+    <t>1.0(0.937)</t>
+  </si>
+  <si>
+    <t>0.06(0.94)</t>
+  </si>
+  <si>
+    <t>3.88(0.017)**</t>
+  </si>
+  <si>
+    <t>0.21(0.123)</t>
+  </si>
+  <si>
+    <t>0.95(0.127)</t>
   </si>
   <si>
     <t>-3.2(0.033)**</t>
   </si>
   <si>
-    <t>0.44(0.007)**</t>
+    <t>0.44(0.02)**</t>
+  </si>
+  <si>
+    <t>0.9(0.02)**</t>
+  </si>
+  <si>
+    <t>-2.88(0.02)**</t>
+  </si>
+  <si>
+    <t>0.02(0.183)</t>
+  </si>
+  <si>
+    <t>0.99(0.837)</t>
+  </si>
+  <si>
+    <t>-0.48(0.833)</t>
+  </si>
+  <si>
+    <t>0.23(0.113)</t>
+  </si>
+  <si>
+    <t>0.95(0.12)</t>
+  </si>
+  <si>
+    <t>-2.35(0.133)</t>
+  </si>
+  <si>
+    <t>0.21(0.157)</t>
+  </si>
+  <si>
+    <t>0.95(0.167)</t>
+  </si>
+  <si>
+    <t>-2.38(0.14)</t>
+  </si>
+  <si>
+    <t>-0.17(0.0)***</t>
+  </si>
+  <si>
+    <t>1.03(1.0)</t>
+  </si>
+  <si>
+    <t>2.13(1.0)</t>
+  </si>
+  <si>
+    <t>0.35(0.003)***</t>
+  </si>
+  <si>
+    <t>0.92(0.007)***</t>
+  </si>
+  <si>
+    <t>-2.62(0.05)**</t>
+  </si>
+  <si>
+    <t>0.08(0.383)</t>
+  </si>
+  <si>
+    <t>0.98(0.427)</t>
+  </si>
+  <si>
+    <t>-0.86(0.55)</t>
+  </si>
+  <si>
+    <t>0.09(0.457)</t>
+  </si>
+  <si>
+    <t>0.98(0.43)</t>
+  </si>
+  <si>
+    <t>-1.32(0.54)</t>
+  </si>
+  <si>
+    <t>0.47(0.01)**</t>
+  </si>
+  <si>
+    <t>0.9(0.017)**</t>
+  </si>
+  <si>
+    <t>-4.45(0.0)***</t>
+  </si>
+  <si>
+    <t>0.04(0.34)</t>
+  </si>
+  <si>
+    <t>0.99(0.637)</t>
+  </si>
+  <si>
+    <t>-1.07(0.643)</t>
+  </si>
+  <si>
+    <t>0.14(0.177)</t>
+  </si>
+  <si>
+    <t>0.97(0.19)</t>
+  </si>
+  <si>
+    <t>-1.65(0.317)</t>
+  </si>
+  <si>
+    <t>0.19(0.187)</t>
+  </si>
+  <si>
+    <t>0.96(0.193)</t>
+  </si>
+  <si>
+    <t>-2.32(0.21)</t>
+  </si>
+  <si>
+    <t>-0.05(0.013)**</t>
+  </si>
+  <si>
+    <t>1.01(0.99)</t>
+  </si>
+  <si>
+    <t>0.84(0.99)</t>
+  </si>
+  <si>
+    <t>0.2(0.037)*</t>
+  </si>
+  <si>
+    <t>0.95(0.037)**</t>
+  </si>
+  <si>
+    <t>-2.0(0.177)</t>
+  </si>
+  <si>
+    <t>0.14(0.133)</t>
+  </si>
+  <si>
+    <t>0.97(0.14)</t>
+  </si>
+  <si>
+    <t>-2.42(0.067)*</t>
+  </si>
+  <si>
+    <t>0.04(0.227)</t>
+  </si>
+  <si>
+    <t>0.99(0.763)</t>
+  </si>
+  <si>
+    <t>-0.59(0.843)</t>
+  </si>
+  <si>
+    <t>0.41(0.007)**</t>
+  </si>
+  <si>
+    <t>0.91(0.01)***</t>
+  </si>
+  <si>
+    <t>-5.26(0.0)***</t>
+  </si>
+  <si>
+    <t>0.05(0.497)</t>
+  </si>
+  <si>
+    <t>0.99(0.493)</t>
+  </si>
+  <si>
+    <t>-1.19(0.523)</t>
+  </si>
+  <si>
+    <t>0.14(0.217)</t>
+  </si>
+  <si>
+    <t>0.97(0.217)</t>
+  </si>
+  <si>
+    <t>-1.61(0.42)</t>
+  </si>
+  <si>
+    <t>0.07(0.44)</t>
+  </si>
+  <si>
+    <t>0.98(0.553)</t>
+  </si>
+  <si>
+    <t>-1.03(0.68)</t>
+  </si>
+  <si>
+    <t>0.02(0.12)</t>
+  </si>
+  <si>
+    <t>1.0(0.9)</t>
+  </si>
+  <si>
+    <t>-0.2(0.91)</t>
+  </si>
+  <si>
+    <t>0.24(0.017)**</t>
+  </si>
+  <si>
+    <t>0.95(0.023)**</t>
+  </si>
+  <si>
+    <t>-3.15(0.027)**</t>
+  </si>
+  <si>
+    <t>0.96(0.04)**</t>
+  </si>
+  <si>
+    <t>-3.83(0.013)**</t>
+  </si>
+  <si>
+    <t>0.04(0.193)</t>
+  </si>
+  <si>
+    <t>0.99(0.803)</t>
+  </si>
+  <si>
+    <t>-0.63(0.84)</t>
+  </si>
+  <si>
+    <t>0.45(0.003)***</t>
   </si>
   <si>
     <t>0.9(0.007)***</t>
   </si>
   <si>
-    <t>-2.88(0.007)***</t>
-  </si>
-  <si>
-    <t>0.02(0.233)</t>
-  </si>
-  <si>
-    <t>0.99(0.827)</t>
-  </si>
-  <si>
-    <t>-0.48(0.847)</t>
-  </si>
-  <si>
-    <t>0.23(0.133)</t>
-  </si>
-  <si>
-    <t>0.95(0.14)</t>
-  </si>
-  <si>
-    <t>-2.35(0.18)</t>
-  </si>
-  <si>
-    <t>0.21(0.187)</t>
-  </si>
-  <si>
-    <t>0.95(0.193)</t>
-  </si>
-  <si>
-    <t>-2.38(0.2)</t>
-  </si>
-  <si>
-    <t>-0.17(0.0)***</t>
-  </si>
-  <si>
-    <t>1.03(1.0)</t>
-  </si>
-  <si>
-    <t>2.13(1.0)</t>
-  </si>
-  <si>
-    <t>0.35(0.0)***</t>
-  </si>
-  <si>
-    <t>0.92(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.62(0.053)*</t>
-  </si>
-  <si>
-    <t>0.08(0.48)</t>
-  </si>
-  <si>
-    <t>0.98(0.507)</t>
-  </si>
-  <si>
-    <t>-0.86(0.6)</t>
-  </si>
-  <si>
-    <t>0.09(0.467)</t>
-  </si>
-  <si>
-    <t>0.98(0.433)</t>
-  </si>
-  <si>
-    <t>-1.32(0.48)</t>
-  </si>
-  <si>
-    <t>0.47(0.007)**</t>
-  </si>
-  <si>
-    <t>-4.45(0.0)***</t>
-  </si>
-  <si>
-    <t>0.04(0.473)</t>
-  </si>
-  <si>
-    <t>0.99(0.533)</t>
-  </si>
-  <si>
-    <t>-1.07(0.547)</t>
-  </si>
-  <si>
-    <t>0.14(0.22)</t>
-  </si>
-  <si>
-    <t>0.97(0.213)</t>
-  </si>
-  <si>
-    <t>-1.65(0.393)</t>
-  </si>
-  <si>
-    <t>0.19(0.233)</t>
-  </si>
-  <si>
-    <t>0.96(0.233)</t>
-  </si>
-  <si>
-    <t>-2.32(0.227)</t>
-  </si>
-  <si>
-    <t>-0.05(0.0)***</t>
-  </si>
-  <si>
-    <t>1.01(1.0)</t>
-  </si>
-  <si>
-    <t>0.84(1.0)</t>
-  </si>
-  <si>
-    <t>0.2(0.04)*</t>
-  </si>
-  <si>
-    <t>0.95(0.04)**</t>
-  </si>
-  <si>
-    <t>-2.0(0.227)</t>
-  </si>
-  <si>
-    <t>0.14(0.207)</t>
-  </si>
-  <si>
-    <t>0.97(0.2)</t>
-  </si>
-  <si>
-    <t>-2.42(0.1)*</t>
-  </si>
-  <si>
-    <t>0.04(0.287)</t>
-  </si>
-  <si>
-    <t>0.99(0.68)</t>
-  </si>
-  <si>
-    <t>-0.59(0.8)</t>
-  </si>
-  <si>
-    <t>0.41(0.007)**</t>
-  </si>
-  <si>
-    <t>0.91(0.007)***</t>
-  </si>
-  <si>
-    <t>-5.26(0.0)***</t>
-  </si>
-  <si>
-    <t>0.05(0.447)</t>
-  </si>
-  <si>
-    <t>0.99(0.447)</t>
-  </si>
-  <si>
-    <t>-1.19(0.48)</t>
-  </si>
-  <si>
-    <t>0.14(0.327)</t>
-  </si>
-  <si>
-    <t>0.97(0.3)</t>
-  </si>
-  <si>
-    <t>-1.61(0.507)</t>
-  </si>
-  <si>
-    <t>0.07(0.373)</t>
-  </si>
-  <si>
-    <t>0.98(0.627)</t>
-  </si>
-  <si>
-    <t>-1.03(0.68)</t>
-  </si>
-  <si>
-    <t>0.02(0.147)</t>
-  </si>
-  <si>
-    <t>1.0(0.88)</t>
-  </si>
-  <si>
-    <t>-0.2(0.893)</t>
-  </si>
-  <si>
-    <t>0.24(0.027)*</t>
-  </si>
-  <si>
-    <t>0.95(0.027)**</t>
-  </si>
-  <si>
-    <t>-3.15(0.027)**</t>
-  </si>
-  <si>
-    <t>0.2(0.047)*</t>
-  </si>
-  <si>
-    <t>0.96(0.053)*</t>
-  </si>
-  <si>
-    <t>-3.83(0.013)**</t>
-  </si>
-  <si>
-    <t>0.04(0.293)</t>
+    <t>-5.54(0.0)***</t>
+  </si>
+  <si>
+    <t>0.03(0.28)</t>
   </si>
   <si>
     <t>0.99(0.713)</t>
   </si>
   <si>
-    <t>-0.63(0.807)</t>
-  </si>
-  <si>
-    <t>0.45(0.007)**</t>
-  </si>
-  <si>
-    <t>-5.54(0.0)***</t>
-  </si>
-  <si>
-    <t>0.03(0.38)</t>
-  </si>
-  <si>
-    <t>0.99(0.627)</t>
-  </si>
-  <si>
-    <t>-0.72(0.64)</t>
-  </si>
-  <si>
-    <t>0.18(0.36)</t>
-  </si>
-  <si>
-    <t>0.96(0.367)</t>
-  </si>
-  <si>
-    <t>-1.72(0.507)</t>
+    <t>-0.72(0.74)</t>
+  </si>
+  <si>
+    <t>0.18(0.21)</t>
+  </si>
+  <si>
+    <t>0.96(0.227)</t>
+  </si>
+  <si>
+    <t>-1.72(0.453)</t>
   </si>
   <si>
     <t>0.08(0.487)</t>
   </si>
   <si>
-    <t>0.98(0.513)</t>
-  </si>
-  <si>
-    <t>-1.12(0.667)</t>
-  </si>
-  <si>
-    <t>0.09(0.367)</t>
-  </si>
-  <si>
-    <t>0.98(0.447)</t>
-  </si>
-  <si>
-    <t>-1.92(0.233)</t>
-  </si>
-  <si>
-    <t>0.23(0.027)*</t>
-  </si>
-  <si>
-    <t>-2.97(0.047)**</t>
-  </si>
-  <si>
-    <t>0.2(0.073)</t>
-  </si>
-  <si>
-    <t>0.96(0.073)*</t>
-  </si>
-  <si>
-    <t>-3.46(0.033)**</t>
-  </si>
-  <si>
-    <t>0.03(0.227)</t>
-  </si>
-  <si>
-    <t>0.99(0.82)</t>
-  </si>
-  <si>
-    <t>-0.35(0.86)</t>
-  </si>
-  <si>
-    <t>0.4(0.013)**</t>
-  </si>
-  <si>
-    <t>0.91(0.013)**</t>
-  </si>
-  <si>
-    <t>-4.12(0.007)***</t>
-  </si>
-  <si>
-    <t>0.09(0.347)</t>
-  </si>
-  <si>
-    <t>0.98(0.34)</t>
-  </si>
-  <si>
-    <t>-1.9(0.313)</t>
-  </si>
-  <si>
-    <t>0.12(0.487)</t>
-  </si>
-  <si>
-    <t>0.97(0.527)</t>
-  </si>
-  <si>
-    <t>-1.18(0.747)</t>
-  </si>
-  <si>
-    <t>0.13(0.247)</t>
-  </si>
-  <si>
-    <t>0.97(0.253)</t>
-  </si>
-  <si>
-    <t>-2.27(0.16)</t>
-  </si>
-  <si>
-    <t>0.13(0.207)</t>
-  </si>
-  <si>
-    <t>0.98(0.28)</t>
-  </si>
-  <si>
-    <t>-2.52(0.08)*</t>
-  </si>
-  <si>
-    <t>0.12(0.227)</t>
-  </si>
-  <si>
-    <t>0.98(0.207)</t>
-  </si>
-  <si>
-    <t>-1.35(0.427)</t>
-  </si>
-  <si>
-    <t>0.27(0.053)</t>
-  </si>
-  <si>
-    <t>-3.88(0.027)**</t>
-  </si>
-  <si>
-    <t>-0.01(0.04)*</t>
-  </si>
-  <si>
-    <t>0.36(0.967)</t>
-  </si>
-  <si>
-    <t>0.23(0.107)</t>
-  </si>
-  <si>
-    <t>0.95(0.107)</t>
-  </si>
-  <si>
-    <t>-2.09(0.147)</t>
-  </si>
-  <si>
-    <t>0.01(0.1)</t>
-  </si>
-  <si>
-    <t>1.0(0.873)</t>
-  </si>
-  <si>
-    <t>0.03(0.893)</t>
+    <t>0.98(0.51)</t>
+  </si>
+  <si>
+    <t>-1.12(0.693)</t>
+  </si>
+  <si>
+    <t>0.09(0.34)</t>
+  </si>
+  <si>
+    <t>0.98(0.413)</t>
+  </si>
+  <si>
+    <t>-1.92(0.243)</t>
+  </si>
+  <si>
+    <t>0.23(0.023)**</t>
+  </si>
+  <si>
+    <t>-2.97(0.04)**</t>
+  </si>
+  <si>
+    <t>0.2(0.05)*</t>
+  </si>
+  <si>
+    <t>0.96(0.057)*</t>
+  </si>
+  <si>
+    <t>-3.46(0.013)**</t>
+  </si>
+  <si>
+    <t>0.03(0.157)</t>
+  </si>
+  <si>
+    <t>0.99(0.843)</t>
+  </si>
+  <si>
+    <t>-0.35(0.87)</t>
+  </si>
+  <si>
+    <t>0.4(0.017)**</t>
+  </si>
+  <si>
+    <t>0.91(0.017)**</t>
+  </si>
+  <si>
+    <t>-4.12(0.003)***</t>
+  </si>
+  <si>
+    <t>0.09(0.38)</t>
+  </si>
+  <si>
+    <t>0.98(0.397)</t>
+  </si>
+  <si>
+    <t>-1.9(0.28)</t>
+  </si>
+  <si>
+    <t>0.12(0.453)</t>
+  </si>
+  <si>
+    <t>0.97(0.47)</t>
+  </si>
+  <si>
+    <t>-1.18(0.663)</t>
+  </si>
+  <si>
+    <t>0.13(0.23)</t>
+  </si>
+  <si>
+    <t>0.97(0.223)</t>
+  </si>
+  <si>
+    <t>-2.27(0.173)</t>
+  </si>
+  <si>
+    <t>0.13(0.213)</t>
+  </si>
+  <si>
+    <t>0.98(0.253)</t>
+  </si>
+  <si>
+    <t>-2.52(0.087)*</t>
+  </si>
+  <si>
+    <t>0.12(0.197)</t>
+  </si>
+  <si>
+    <t>0.98(0.19)</t>
+  </si>
+  <si>
+    <t>-1.35(0.447)</t>
+  </si>
+  <si>
+    <t>0.27(0.017)**</t>
+  </si>
+  <si>
+    <t>0.95(0.013)**</t>
+  </si>
+  <si>
+    <t>-3.88(0.003)***</t>
+  </si>
+  <si>
+    <t>-0.01(0.023)**</t>
+  </si>
+  <si>
+    <t>1.0(0.977)</t>
+  </si>
+  <si>
+    <t>0.36(0.97)</t>
+  </si>
+  <si>
+    <t>0.23(0.117)</t>
+  </si>
+  <si>
+    <t>0.95(0.113)</t>
+  </si>
+  <si>
+    <t>-2.09(0.153)</t>
+  </si>
+  <si>
+    <t>0.01(0.097)</t>
+  </si>
+  <si>
+    <t>1.0(0.897)</t>
+  </si>
+  <si>
+    <t>0.03(0.907)</t>
   </si>
   <si>
     <t>0.16(0.227)</t>
   </si>
   <si>
-    <t>0.97(0.24)</t>
-  </si>
-  <si>
-    <t>-1.62(0.34)</t>
-  </si>
-  <si>
-    <t>0.09(0.42)</t>
-  </si>
-  <si>
-    <t>0.98(0.613)</t>
-  </si>
-  <si>
-    <t>-1.23(0.66)</t>
-  </si>
-  <si>
-    <t>0.16(0.133)</t>
-  </si>
-  <si>
-    <t>0.97(0.147)</t>
-  </si>
-  <si>
-    <t>-3.6(0.013)**</t>
-  </si>
-  <si>
-    <t>-0.02(0.02)**</t>
-  </si>
-  <si>
-    <t>1.01(0.98)</t>
-  </si>
-  <si>
-    <t>0.32(0.973)</t>
+    <t>0.97(0.233)</t>
+  </si>
+  <si>
+    <t>-1.62(0.353)</t>
+  </si>
+  <si>
+    <t>0.09(0.493)</t>
+  </si>
+  <si>
+    <t>0.98(0.537)</t>
+  </si>
+  <si>
+    <t>-1.23(0.57)</t>
+  </si>
+  <si>
+    <t>0.16(0.123)</t>
+  </si>
+  <si>
+    <t>-3.6(0.003)***</t>
+  </si>
+  <si>
+    <t>-0.02(0.017)**</t>
+  </si>
+  <si>
+    <t>1.01(0.987)</t>
+  </si>
+  <si>
+    <t>0.32(0.967)</t>
   </si>
   <si>
     <t>0.28(0.02)**</t>
@@ -574,148 +580,142 @@
     <t>0.94(0.02)**</t>
   </si>
   <si>
-    <t>-3.2(0.04)**</t>
-  </si>
-  <si>
-    <t>-0.07(0.02)**</t>
-  </si>
-  <si>
-    <t>1.02(0.98)</t>
-  </si>
-  <si>
-    <t>1.17(0.98)</t>
-  </si>
-  <si>
-    <t>0.3(0.047)*</t>
+    <t>-3.2(0.003)***</t>
+  </si>
+  <si>
+    <t>-0.07(0.003)***</t>
+  </si>
+  <si>
+    <t>1.02(1.0)</t>
+  </si>
+  <si>
+    <t>1.17(0.99)</t>
+  </si>
+  <si>
+    <t>0.3(0.043)*</t>
   </si>
   <si>
     <t>0.94(0.04)**</t>
   </si>
   <si>
-    <t>-2.84(0.04)**</t>
+    <t>-2.84(0.013)**</t>
   </si>
   <si>
     <t>-0.08(0.0)***</t>
   </si>
   <si>
-    <t>1.02(1.0)</t>
-  </si>
-  <si>
     <t>1.44(1.0)</t>
   </si>
   <si>
-    <t>0.05(0.147)</t>
-  </si>
-  <si>
-    <t>0.99(0.86)</t>
-  </si>
-  <si>
-    <t>-0.28(0.913)</t>
-  </si>
-  <si>
-    <t>0.14(0.407)</t>
-  </si>
-  <si>
-    <t>0.97(0.427)</t>
-  </si>
-  <si>
-    <t>-1.46(0.453)</t>
-  </si>
-  <si>
-    <t>0.17(0.16)</t>
-  </si>
-  <si>
-    <t>0.97(0.153)</t>
-  </si>
-  <si>
-    <t>-2.68(0.027)**</t>
-  </si>
-  <si>
-    <t>-0.02(0.027)*</t>
-  </si>
-  <si>
-    <t>1.01(0.973)</t>
-  </si>
-  <si>
-    <t>0.28(0.953)</t>
-  </si>
-  <si>
-    <t>0.22(0.1)</t>
-  </si>
-  <si>
-    <t>0.96(0.1)*</t>
-  </si>
-  <si>
-    <t>-2.29(0.087)*</t>
-  </si>
-  <si>
-    <t>-0.13(0.007)**</t>
-  </si>
-  <si>
-    <t>1.03(0.993)</t>
+    <t>0.05(0.203)</t>
+  </si>
+  <si>
+    <t>-0.28(0.843)</t>
+  </si>
+  <si>
+    <t>0.14(0.337)</t>
+  </si>
+  <si>
+    <t>0.97(0.363)</t>
+  </si>
+  <si>
+    <t>-1.46(0.437)</t>
+  </si>
+  <si>
+    <t>0.17(0.157)</t>
+  </si>
+  <si>
+    <t>0.97(0.177)</t>
+  </si>
+  <si>
+    <t>-2.68(0.037)**</t>
+  </si>
+  <si>
+    <t>-0.02(0.013)**</t>
+  </si>
+  <si>
+    <t>1.01(0.983)</t>
+  </si>
+  <si>
+    <t>0.28(0.967)</t>
+  </si>
+  <si>
+    <t>0.22(0.093)</t>
+  </si>
+  <si>
+    <t>0.96(0.083)*</t>
+  </si>
+  <si>
+    <t>-2.29(0.073)*</t>
+  </si>
+  <si>
+    <t>-0.13(0.0)***</t>
   </si>
   <si>
     <t>1.38(1.0)</t>
   </si>
   <si>
-    <t>0.34(0.16)</t>
+    <t>0.34(0.167)</t>
+  </si>
+  <si>
+    <t>0.93(0.157)</t>
+  </si>
+  <si>
+    <t>-0.92(0.34)</t>
+  </si>
+  <si>
+    <t>-0.07(0.01)**</t>
+  </si>
+  <si>
+    <t>1.02(0.99)</t>
+  </si>
+  <si>
+    <t>1.1(0.99)</t>
+  </si>
+  <si>
+    <t>-0.05(0.017)**</t>
+  </si>
+  <si>
+    <t>1.02(0.983)</t>
+  </si>
+  <si>
+    <t>0.37(0.967)</t>
+  </si>
+  <si>
+    <t>0.05(0.18)</t>
+  </si>
+  <si>
+    <t>0.99(0.83)</t>
+  </si>
+  <si>
+    <t>-0.18(0.853)</t>
+  </si>
+  <si>
+    <t>0.37(0.113)</t>
   </si>
   <si>
     <t>0.93(0.147)</t>
   </si>
   <si>
-    <t>-0.92(0.34)</t>
-  </si>
-  <si>
-    <t>-0.07(0.007)**</t>
-  </si>
-  <si>
-    <t>1.02(0.973)</t>
-  </si>
-  <si>
-    <t>1.1(0.967)</t>
-  </si>
-  <si>
-    <t>-0.05(0.02)**</t>
-  </si>
-  <si>
-    <t>0.37(0.967)</t>
-  </si>
-  <si>
-    <t>0.05(0.187)</t>
-  </si>
-  <si>
-    <t>0.99(0.853)</t>
-  </si>
-  <si>
-    <t>-0.18(0.867)</t>
-  </si>
-  <si>
-    <t>0.37(0.093)</t>
-  </si>
-  <si>
-    <t>0.93(0.093)*</t>
-  </si>
-  <si>
     <t>-4.8(0.0)***</t>
   </si>
   <si>
-    <t>0.07(0.313)</t>
-  </si>
-  <si>
-    <t>0.99(0.707)</t>
-  </si>
-  <si>
-    <t>-0.22(0.78)</t>
-  </si>
-  <si>
-    <t>0.37(0.027)*</t>
-  </si>
-  <si>
-    <t>0.93(0.033)**</t>
-  </si>
-  <si>
-    <t>-3.15(0.013)**</t>
+    <t>0.07(0.277)</t>
+  </si>
+  <si>
+    <t>0.99(0.747)</t>
+  </si>
+  <si>
+    <t>-0.22(0.827)</t>
+  </si>
+  <si>
+    <t>0.37(0.053)</t>
+  </si>
+  <si>
+    <t>0.93(0.057)*</t>
+  </si>
+  <si>
+    <t>-3.15(0.017)**</t>
   </si>
 </sst>
 </file>
@@ -1131,19 +1131,19 @@
         <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
         <v>119</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K2" t="s">
         <v>211</v>
@@ -1164,22 +1164,22 @@
         <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
         <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="J3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K3" t="s">
-        <v>212</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1230,22 +1230,22 @@
         <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
         <v>121</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1274,22 +1274,22 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
         <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1304,25 +1304,25 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1370,25 +1370,25 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1414,25 +1414,25 @@
         <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1447,25 +1447,25 @@
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1513,25 +1513,25 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1557,25 +1557,25 @@
         <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1590,25 +1590,25 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1656,19 +1656,19 @@
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J20" t="s">
         <v>198</v>
@@ -1700,19 +1700,19 @@
         <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
         <v>199</v>
@@ -1733,19 +1733,19 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I23" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
         <v>200</v>
@@ -1799,19 +1799,19 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I25" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J25" t="s">
         <v>201</v>
@@ -1843,19 +1843,19 @@
         <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J27" t="s">
         <v>202</v>
@@ -1876,19 +1876,19 @@
         <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I28" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="J28" t="s">
         <v>203</v>
@@ -1942,19 +1942,19 @@
         <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J30" t="s">
         <v>204</v>
@@ -1986,19 +1986,19 @@
         <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I32" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J32" t="s">
         <v>205</v>
@@ -2019,19 +2019,19 @@
         <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I33" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J33" t="s">
         <v>206</v>
@@ -2085,19 +2085,19 @@
         <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I35" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J35" t="s">
         <v>207</v>
@@ -2129,19 +2129,19 @@
         <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J37" t="s">
         <v>208</v>
@@ -2162,19 +2162,19 @@
         <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F38" t="s">
         <v>117</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H38" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="I38" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J38" t="s">
         <v>209</v>
@@ -2228,19 +2228,19 @@
         <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" t="s">
         <v>118</v>
       </c>
       <c r="G40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J40" t="s">
         <v>210</v>
